--- a/@ELTOROIT/Sample Data/FIFA Data/F1F4 Data Dictionary (part 1).xlsx
+++ b/@ELTOROIT/Sample Data/FIFA Data/F1F4 Data Dictionary (part 1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="188">
   <si>
     <t>#</t>
   </si>
@@ -119,7 +119,9 @@
     <t>Hourly, full refresh</t>
   </si>
   <si>
-    <t>gs://f1f4-bucket/WebsiteData/ Sales/Fans.csv</t>
+    <t>- gs://f1f4-bucket/WebsiteData/
+- Sales/
+- Fans.csv</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT fanid__c, firstname__c, lastname__c, email1__c, email2__c FROM Fans__dll </t>
@@ -134,7 +136,9 @@
     <t>ProdId</t>
   </si>
   <si>
-    <t>gs://f1f4-bucket/WebsiteData/ Sales/Products.csv</t>
+    <t>- gs://f1f4-bucket/WebsiteData/
+- Sales/
+- Products.csv</t>
   </si>
   <si>
     <t>SELECT prodid__c, category__c, description__c, cost__c, onsale__c, price__c, profitdiscount__c FROM Products__dll</t>
@@ -149,7 +153,9 @@
     <t>Date Ordered</t>
   </si>
   <si>
-    <t>gs://f1f4-bucket/WebsiteData/ Sales/SalesTransactions.csv</t>
+    <t>- gs://f1f4-bucket/WebsiteData/
+- Sales/
+- SalesTransactions.csv</t>
   </si>
   <si>
     <t>SELECT SalesTransactionsPK__c, orderid__c, prodid__c, dateordered__c, fanid__c, quantity__c, unitcost__c, unitprice__c FROM SalesTransactions__dll</t>
@@ -176,15 +182,15 @@
     <t>Manual Import</t>
   </si>
   <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>ID (15/18)</t>
+  </si>
+  <si>
     <t>Account ID</t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>ID (15/18)</t>
-  </si>
-  <si>
     <t>Id__c</t>
   </si>
   <si>
@@ -194,6 +200,15 @@
     <t>-</t>
   </si>
   <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Account Phone</t>
+  </si>
+  <si>
+    <t>Phone__c</t>
+  </si>
+  <si>
     <t>Birthdate</t>
   </si>
   <si>
@@ -281,63 +296,75 @@
     <t>PersonMailingPostalCode__c</t>
   </si>
   <si>
-    <t>Account Phone</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Phone__c</t>
-  </si>
-  <si>
     <t>Birthdate__c</t>
   </si>
   <si>
+    <t>Email__c</t>
+  </si>
+  <si>
+    <t>FanId__c</t>
+  </si>
+  <si>
+    <t>FanId_c__c</t>
+  </si>
+  <si>
+    <t>Permission Set</t>
+  </si>
+  <si>
+    <t>GenderIdentity</t>
+  </si>
+  <si>
+    <t>Picklist</t>
+  </si>
+  <si>
+    <t>Gender Identity</t>
+  </si>
+  <si>
+    <t>GenderIdentity__c</t>
+  </si>
+  <si>
+    <t>Contact ID</t>
+  </si>
+  <si>
+    <t>MailingCity</t>
+  </si>
+  <si>
+    <t>MailingCity__c</t>
+  </si>
+  <si>
+    <t>MailingCountry</t>
+  </si>
+  <si>
+    <t>MailingCountry__c</t>
+  </si>
+  <si>
+    <t>MailingPostalCode</t>
+  </si>
+  <si>
+    <t>MailingPostalCode__c</t>
+  </si>
+  <si>
+    <t>MailingState</t>
+  </si>
+  <si>
+    <t>MailingState__c</t>
+  </si>
+  <si>
+    <t>MailingStreet</t>
+  </si>
+  <si>
+    <t>MailingStreet__c</t>
+  </si>
+  <si>
     <t>Business Phone</t>
   </si>
   <si>
-    <t>Contact ID</t>
-  </si>
-  <si>
-    <t>Email__c</t>
-  </si>
-  <si>
-    <t>FanId_c__c</t>
-  </si>
-  <si>
-    <t>Gender Identity</t>
-  </si>
-  <si>
-    <t>Picklist</t>
-  </si>
-  <si>
-    <t>GenderIdentity__c</t>
-  </si>
-  <si>
-    <t>Permission Set</t>
-  </si>
-  <si>
-    <t>MailingCity__c</t>
-  </si>
-  <si>
-    <t>MailingCountry__c</t>
-  </si>
-  <si>
-    <t>MailingState__c</t>
-  </si>
-  <si>
-    <t>MailingStreet__c</t>
-  </si>
-  <si>
-    <t>MailingPostalCode__c</t>
+    <t>Formula</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
     <t>Identification Name</t>
   </si>
   <si>
@@ -359,63 +386,87 @@
     <t>Case</t>
   </si>
   <si>
+    <t>CaseNumber</t>
+  </si>
+  <si>
+    <t>Case Number</t>
+  </si>
+  <si>
+    <t>CaseNumber__c</t>
+  </si>
+  <si>
+    <t>ClosedDate</t>
+  </si>
+  <si>
+    <t>Date/Time</t>
+  </si>
+  <si>
+    <t>Closed Date</t>
+  </si>
+  <si>
+    <t>ClosedDate__c</t>
+  </si>
+  <si>
+    <t>ContactId</t>
+  </si>
+  <si>
+    <t>Lookup</t>
+  </si>
+  <si>
+    <t>ContactId__c</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>CreatedDate__c</t>
+  </si>
+  <si>
+    <t>CSAT__c</t>
+  </si>
+  <si>
+    <t>Number(1, 0)</t>
+  </si>
+  <si>
+    <t>CSAT</t>
+  </si>
+  <si>
+    <t>CSAT_c__c</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
     <t>Case ID</t>
   </si>
   <si>
+    <t>Origin</t>
+  </si>
+  <si>
     <t>Case Origin</t>
   </si>
   <si>
     <t>Origin__c</t>
   </si>
   <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Priority__c</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
     <t>Case Reason</t>
   </si>
   <si>
     <t>Reason__c</t>
   </si>
   <si>
-    <t>Closed Date</t>
-  </si>
-  <si>
-    <t>Date/Time</t>
-  </si>
-  <si>
-    <t>ClosedDate__c</t>
-  </si>
-  <si>
-    <t>Lookup</t>
-  </si>
-  <si>
-    <t>ContactId__c</t>
-  </si>
-  <si>
-    <t>Created Date</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>CreatedDate__c</t>
-  </si>
-  <si>
-    <t>CSAT</t>
-  </si>
-  <si>
-    <t>Number(1, 0)</t>
-  </si>
-  <si>
-    <t>CSAT_c__c</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Priority__c</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -488,6 +539,9 @@
     <t>profitdiscount__c</t>
   </si>
   <si>
+    <t>SalesTransactions</t>
+  </si>
+  <si>
     <t>DateOrdered</t>
   </si>
   <si>
@@ -524,10 +578,10 @@
     <t>unitprice__c</t>
   </si>
   <si>
-    <t>SalesTransactionsPK</t>
-  </si>
-  <si>
-    <t>SalesTransactionsPK__c</t>
+    <t>SalesTransactionPK</t>
+  </si>
+  <si>
+    <t>SalesTransactionPK__c</t>
   </si>
   <si>
     <t>sourceField['OrderID']+"_"+sourceField['ProdId']</t>
@@ -540,7 +594,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -565,11 +619,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="10.0"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
@@ -578,7 +628,25 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF181818"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10.0"/>
+      <color rgb="FF181818"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -586,8 +654,18 @@
       <name val="-apple-system"/>
     </font>
     <font>
+      <color rgb="FF181818"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FFFF0000"/>
@@ -620,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -664,52 +742,81 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,8 +1311,8 @@
     <col customWidth="1" min="5" max="5" width="17.75"/>
     <col customWidth="1" min="6" max="6" width="13.5"/>
     <col customWidth="1" min="7" max="7" width="10.38"/>
-    <col customWidth="1" min="8" max="8" width="23.63"/>
-    <col customWidth="1" min="9" max="9" width="41.0"/>
+    <col customWidth="1" min="8" max="8" width="24.88"/>
+    <col customWidth="1" min="9" max="9" width="70.25"/>
     <col customWidth="1" min="10" max="10" width="8.38"/>
     <col customWidth="1" min="11" max="27" width="6.88"/>
   </cols>
@@ -1621,52 +1728,52 @@
     <col customWidth="1" min="1" max="1" width="13.13"/>
     <col customWidth="1" min="2" max="2" width="7.0"/>
     <col customWidth="1" min="3" max="3" width="10.5"/>
-    <col customWidth="1" min="4" max="4" width="18.63"/>
+    <col customWidth="1" min="4" max="4" width="20.13"/>
     <col customWidth="1" min="5" max="5" width="7.13"/>
     <col customWidth="1" min="6" max="6" width="10.88"/>
     <col customWidth="1" min="7" max="7" width="18.75"/>
     <col customWidth="1" min="8" max="8" width="22.88"/>
     <col customWidth="1" min="9" max="9" width="8.13"/>
     <col customWidth="1" min="10" max="10" width="12.38"/>
-    <col customWidth="1" min="11" max="11" width="12.25"/>
+    <col customWidth="1" min="11" max="11" width="14.63"/>
     <col customWidth="1" min="12" max="28" width="7.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="16"/>
+      <c r="L1" s="15"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
@@ -1685,38 +1792,38 @@
       <c r="AB1" s="16"/>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
@@ -1735,35 +1842,35 @@
       <c r="AB2" s="16"/>
     </row>
     <row r="3">
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="16"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="I3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="17"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
@@ -1774,31 +1881,31 @@
       <c r="AB3" s="16"/>
     </row>
     <row r="4">
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="I4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="J4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
@@ -1813,31 +1920,31 @@
       <c r="AB4" s="16"/>
     </row>
     <row r="5">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
@@ -1852,31 +1959,31 @@
       <c r="AB5" s="16"/>
     </row>
     <row r="6">
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="16"/>
+      <c r="I6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
@@ -1891,27 +1998,27 @@
       <c r="AB6" s="16"/>
     </row>
     <row r="7">
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="H7" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>76</v>
-      </c>
       <c r="I7" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>63</v>
+      <c r="J7" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -1930,27 +2037,27 @@
       <c r="AB7" s="16"/>
     </row>
     <row r="8">
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>63</v>
+      <c r="I8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -1969,27 +2076,27 @@
       <c r="AB8" s="16"/>
     </row>
     <row r="9">
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>63</v>
+      <c r="H9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -2009,26 +2116,26 @@
     </row>
     <row r="10">
       <c r="D10" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>63</v>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -2047,27 +2154,27 @@
       <c r="AB10" s="16"/>
     </row>
     <row r="11">
-      <c r="D11" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="20" t="s">
+      <c r="D11" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>63</v>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
@@ -2087,26 +2194,26 @@
     </row>
     <row r="12">
       <c r="D12" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>63</v>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
@@ -2125,27 +2232,27 @@
       <c r="AB12" s="16"/>
     </row>
     <row r="13">
-      <c r="D13" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="18" t="s">
+      <c r="D13" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>58</v>
+      <c r="I13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="L13" s="15"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
@@ -2164,18 +2271,18 @@
       <c r="AB13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
@@ -2194,40 +2301,40 @@
       <c r="AB14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -2246,36 +2353,36 @@
       <c r="AB15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="20" t="s">
+      <c r="D16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="18" t="s">
+      <c r="I16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="15"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
@@ -2294,26 +2401,26 @@
       <c r="AB16" s="16"/>
     </row>
     <row r="17">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="18" t="s">
+      <c r="I17" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
@@ -2333,28 +2440,28 @@
       <c r="AB17" s="16"/>
     </row>
     <row r="18">
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -2374,26 +2481,26 @@
       <c r="AB18" s="16"/>
     </row>
     <row r="19">
-      <c r="D19" s="18" t="s">
-        <v>64</v>
+      <c r="D19" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="E19" s="16"/>
-      <c r="F19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="18" t="s">
+      <c r="F19" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="18"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
@@ -2413,26 +2520,28 @@
       <c r="AB19" s="16"/>
     </row>
     <row r="20">
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="20" t="s">
+      <c r="K20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
@@ -2452,26 +2561,28 @@
       <c r="AB20" s="16"/>
     </row>
     <row r="21">
-      <c r="D21" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="18" t="s">
+      <c r="D21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="18"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
@@ -2491,28 +2602,26 @@
       <c r="AB21" s="16"/>
     </row>
     <row r="22">
-      <c r="D22" s="18" t="s">
-        <v>96</v>
+      <c r="D22" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="E22" s="16"/>
-      <c r="F22" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>99</v>
-      </c>
+      <c r="F22" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
@@ -2532,23 +2641,23 @@
       <c r="AB22" s="16"/>
     </row>
     <row r="23">
-      <c r="D23" s="18" t="s">
-        <v>75</v>
+      <c r="D23" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="E23" s="16"/>
-      <c r="F23" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="18" t="s">
+      <c r="F23" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="17" t="s">
         <v>58</v>
       </c>
       <c r="K23" s="16"/>
@@ -2571,23 +2680,23 @@
       <c r="AB23" s="16"/>
     </row>
     <row r="24">
-      <c r="D24" s="18" t="s">
-        <v>77</v>
+      <c r="D24" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="E24" s="16"/>
-      <c r="F24" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="18" t="s">
+      <c r="F24" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="17" t="s">
         <v>58</v>
       </c>
       <c r="K24" s="16"/>
@@ -2610,23 +2719,23 @@
       <c r="AB24" s="16"/>
     </row>
     <row r="25">
-      <c r="D25" s="18" t="s">
-        <v>80</v>
+      <c r="D25" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="E25" s="16"/>
-      <c r="F25" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="18" t="s">
+      <c r="F25" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="17" t="s">
         <v>58</v>
       </c>
       <c r="K25" s="16"/>
@@ -2649,23 +2758,23 @@
       <c r="AB25" s="16"/>
     </row>
     <row r="26">
-      <c r="D26" s="18" t="s">
-        <v>82</v>
+      <c r="D26" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="18" t="s">
+      <c r="F26" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>58</v>
       </c>
       <c r="K26" s="16"/>
@@ -2688,23 +2797,23 @@
       <c r="AB26" s="16"/>
     </row>
     <row r="27">
-      <c r="D27" s="18" t="s">
-        <v>84</v>
+      <c r="D27" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="18" t="s">
+      <c r="F27" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="17" t="s">
         <v>58</v>
       </c>
       <c r="K27" s="16"/>
@@ -2727,23 +2836,23 @@
       <c r="AB27" s="16"/>
     </row>
     <row r="28">
-      <c r="D28" s="18" t="s">
-        <v>86</v>
+      <c r="D28" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" s="18" t="s">
+      <c r="F28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="17" t="s">
         <v>58</v>
       </c>
       <c r="K28" s="16"/>
@@ -2766,38 +2875,36 @@
       <c r="AB28" s="16"/>
     </row>
     <row r="29">
-      <c r="D29" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>109</v>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
@@ -2809,31 +2916,29 @@
       <c r="AB29" s="16"/>
     </row>
     <row r="30">
-      <c r="D30" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="18" t="s">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="L30" s="21"/>
+      <c r="F30" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="27"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
@@ -2852,16 +2957,16 @@
       <c r="AB30" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
@@ -2882,40 +2987,40 @@
       <c r="AB31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L32" s="18"/>
+      <c r="L32" s="15"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
@@ -2934,37 +3039,35 @@
       <c r="AB32" s="16"/>
     </row>
     <row r="33">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="18" t="s">
+      <c r="D33" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="18"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
@@ -2984,27 +3087,27 @@
       <c r="AB33" s="16"/>
     </row>
     <row r="34">
-      <c r="D34" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="18" t="s">
+      <c r="D34" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="17"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
@@ -3023,27 +3126,27 @@
       <c r="AB34" s="16"/>
     </row>
     <row r="35">
-      <c r="D35" s="18" t="s">
-        <v>117</v>
+      <c r="D35" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="E35" s="16"/>
-      <c r="F35" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="16"/>
+      <c r="F35" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
@@ -3062,26 +3165,28 @@
       <c r="AB35" s="16"/>
     </row>
     <row r="36">
-      <c r="D36" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="18" t="s">
+      <c r="D36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="18"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
@@ -3101,26 +3206,28 @@
       <c r="AB36" s="16"/>
     </row>
     <row r="37">
-      <c r="D37" s="19" t="s">
-        <v>93</v>
+      <c r="D37" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="E37" s="16"/>
-      <c r="F37" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" s="16"/>
+      <c r="F37" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
@@ -3140,28 +3247,28 @@
       <c r="AB37" s="16"/>
     </row>
     <row r="38">
-      <c r="D38" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" s="16"/>
+      <c r="D38" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
@@ -3181,28 +3288,28 @@
       <c r="AB38" s="16"/>
     </row>
     <row r="39">
-      <c r="D39" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>99</v>
-      </c>
+      <c r="D39" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="16"/>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
@@ -3222,30 +3329,28 @@
       <c r="AB39" s="16"/>
     </row>
     <row r="40">
-      <c r="D40" s="19" t="s">
-        <v>66</v>
+      <c r="D40" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="E40" s="16"/>
-      <c r="F40" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
+      <c r="F40" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="16"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
@@ -3263,28 +3368,28 @@
       <c r="AB40" s="16"/>
     </row>
     <row r="41">
-      <c r="D41" s="19" t="s">
-        <v>131</v>
+      <c r="D41" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="E41" s="16"/>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G41" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" s="18" t="s">
+      <c r="G41" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="17" t="s">
         <v>58</v>
       </c>
       <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
@@ -3302,28 +3407,28 @@
       <c r="AB41" s="16"/>
     </row>
     <row r="42">
-      <c r="D42" s="16" t="s">
-        <v>133</v>
+      <c r="D42" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="E42" s="16"/>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>58</v>
+      <c r="G42" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
@@ -3341,28 +3446,28 @@
       <c r="AB42" s="16"/>
     </row>
     <row r="43">
-      <c r="D43" s="24" t="s">
-        <v>135</v>
+      <c r="D43" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="E43" s="16"/>
-      <c r="F43" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J43" s="16" t="s">
+      <c r="F43" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="17" t="s">
         <v>58</v>
       </c>
       <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
@@ -3380,32 +3485,28 @@
       <c r="AB43" s="16"/>
     </row>
     <row r="44">
-      <c r="D44" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K44" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
+      <c r="D44" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
@@ -3423,29 +3524,27 @@
       <c r="AB44" s="16"/>
     </row>
     <row r="45">
-      <c r="D45" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J45" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K45" s="16" t="s">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17" t="s">
         <v>112</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
@@ -3466,17 +3565,28 @@
       <c r="AB45" s="16"/>
     </row>
     <row r="46">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
@@ -3525,17 +3635,47 @@
       <c r="AA47" s="16"/>
       <c r="AB47" s="16"/>
     </row>
+    <row r="48">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B33:B45"/>
-    <mergeCell ref="C33:C45"/>
+    <mergeCell ref="B33:B46"/>
+    <mergeCell ref="C33:C46"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A16:A30"/>
     <mergeCell ref="B16:B30"/>
     <mergeCell ref="C16:C30"/>
-    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="A33:A46"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3555,1048 +3695,1102 @@
     <col customWidth="1" min="2" max="2" width="15.13"/>
     <col customWidth="1" min="3" max="3" width="10.5"/>
     <col customWidth="1" min="4" max="4" width="16.88"/>
-    <col customWidth="1" min="5" max="5" width="4.63"/>
+    <col customWidth="1" min="5" max="5" width="7.13"/>
     <col customWidth="1" min="6" max="6" width="10.88"/>
-    <col customWidth="1" min="7" max="7" width="16.88"/>
-    <col customWidth="1" min="8" max="8" width="19.5"/>
+    <col customWidth="1" min="7" max="7" width="18.75"/>
+    <col customWidth="1" min="8" max="8" width="22.38"/>
     <col customWidth="1" min="9" max="9" width="7.63"/>
     <col customWidth="1" min="10" max="10" width="36.25"/>
     <col customWidth="1" min="11" max="27" width="7.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+    </row>
+    <row r="3">
+      <c r="D3" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="G12" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-    </row>
-    <row r="3">
-      <c r="D3" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-    </row>
-    <row r="4">
-      <c r="D4" s="18" t="s">
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="E21" s="30"/>
+      <c r="F21" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-    </row>
-    <row r="5">
-      <c r="D5" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="D6" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="D10" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="D11" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="D12" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="18" t="s">
+      <c r="H21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="25" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
+      <c r="H23" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
     </row>
     <row r="24">
-      <c r="D24" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
+      <c r="D24" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
     </row>
     <row r="25">
-      <c r="D25" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
+      <c r="D25" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
     </row>
     <row r="26">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
+      <c r="D26" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
     </row>
     <row r="27">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="A20:A27"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
